--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H2">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I2">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J2">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>10706.76318595206</v>
+        <v>10832.12226833451</v>
       </c>
       <c r="R2">
-        <v>96360.86867356853</v>
+        <v>97489.10041501057</v>
       </c>
       <c r="S2">
-        <v>0.006460158426743153</v>
+        <v>0.007087025696844409</v>
       </c>
       <c r="T2">
-        <v>0.006460158426743154</v>
+        <v>0.00708702569684441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H3">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I3">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J3">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>11285.32501356601</v>
+        <v>11720.16621390012</v>
       </c>
       <c r="R3">
-        <v>101567.9251220941</v>
+        <v>105481.4959251011</v>
       </c>
       <c r="S3">
-        <v>0.006809246288418861</v>
+        <v>0.00766803744193416</v>
       </c>
       <c r="T3">
-        <v>0.006809246288418862</v>
+        <v>0.007668037441934161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H4">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I4">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J4">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>7291.325501447343</v>
+        <v>5052.409993371773</v>
       </c>
       <c r="R4">
-        <v>65621.92951302609</v>
+        <v>45471.68994034596</v>
       </c>
       <c r="S4">
-        <v>0.00439937981836607</v>
+        <v>0.003305590406664111</v>
       </c>
       <c r="T4">
-        <v>0.004399379818366071</v>
+        <v>0.003305590406664113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H5">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I5">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J5">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>3906.627123062546</v>
+        <v>3967.518268935427</v>
       </c>
       <c r="R5">
-        <v>35159.64410756292</v>
+        <v>35707.66442041884</v>
       </c>
       <c r="S5">
-        <v>0.002357148438877303</v>
+        <v>0.002595789008663792</v>
       </c>
       <c r="T5">
-        <v>0.002357148438877303</v>
+        <v>0.002595789008663793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H6">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I6">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J6">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>5687.051696768071</v>
+        <v>4737.160200871361</v>
       </c>
       <c r="R6">
-        <v>51183.46527091264</v>
+        <v>42634.44180784225</v>
       </c>
       <c r="S6">
-        <v>0.003431406327395417</v>
+        <v>0.003099335037214815</v>
       </c>
       <c r="T6">
-        <v>0.003431406327395417</v>
+        <v>0.003099335037214815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I7">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J7">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>429501.5777201148</v>
+        <v>418408.4245007462</v>
       </c>
       <c r="R7">
-        <v>3865514.199481032</v>
+        <v>3765675.820506716</v>
       </c>
       <c r="S7">
-        <v>0.2591491180311703</v>
+        <v>0.2737479491790206</v>
       </c>
       <c r="T7">
-        <v>0.2591491180311702</v>
+        <v>0.2737479491790206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I8">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J8">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>452710.5731422667</v>
@@ -948,10 +948,10 @@
         <v>4074395.1582804</v>
       </c>
       <c r="S8">
-        <v>0.2731527701852948</v>
+        <v>0.2961904773242287</v>
       </c>
       <c r="T8">
-        <v>0.2731527701852947</v>
+        <v>0.2961904773242287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I9">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J9">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>292491.3675732963</v>
+        <v>195157.5926573752</v>
       </c>
       <c r="R9">
-        <v>2632422.308159667</v>
+        <v>1756418.333916377</v>
       </c>
       <c r="S9">
-        <v>0.1764810279410545</v>
+        <v>0.1276838314630442</v>
       </c>
       <c r="T9">
-        <v>0.1764810279410545</v>
+        <v>0.1276838314630443</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I10">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J10">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>156714.2640383668</v>
+        <v>153251.8768677488</v>
       </c>
       <c r="R10">
-        <v>1410428.376345301</v>
+        <v>1379266.891809739</v>
       </c>
       <c r="S10">
-        <v>0.09455695954372445</v>
+        <v>0.1002665925057329</v>
       </c>
       <c r="T10">
-        <v>0.09455695954372444</v>
+        <v>0.1002665925057329</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I11">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J11">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>228135.9579842564</v>
+        <v>182980.5542399012</v>
       </c>
       <c r="R11">
-        <v>2053223.621858307</v>
+        <v>1646824.988159111</v>
       </c>
       <c r="S11">
-        <v>0.1376507919170965</v>
+        <v>0.1197168807549289</v>
       </c>
       <c r="T11">
-        <v>0.1376507919170965</v>
+        <v>0.1197168807549289</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H12">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I12">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J12">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>36.02989744414533</v>
+        <v>219.557774360416</v>
       </c>
       <c r="R12">
-        <v>324.2690769973079</v>
+        <v>1976.019969243744</v>
       </c>
       <c r="S12">
-        <v>2.173942222742735E-05</v>
+        <v>0.0001436478974561537</v>
       </c>
       <c r="T12">
-        <v>2.173942222742735E-05</v>
+        <v>0.0001436478974561538</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H13">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I13">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J13">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>37.97684657825699</v>
+        <v>237.557659091463</v>
       </c>
       <c r="R13">
-        <v>341.791619204313</v>
+        <v>2138.018931823167</v>
       </c>
       <c r="S13">
-        <v>2.291415633116417E-05</v>
+        <v>0.000155424504336052</v>
       </c>
       <c r="T13">
-        <v>2.291415633116417E-05</v>
+        <v>0.000155424504336052</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H14">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I14">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J14">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>24.53642669464433</v>
+        <v>102.407992249481</v>
       </c>
       <c r="R14">
-        <v>220.827840251799</v>
+        <v>921.6719302453289</v>
       </c>
       <c r="S14">
-        <v>1.480458668232675E-05</v>
+        <v>6.700146607059166E-05</v>
       </c>
       <c r="T14">
-        <v>1.480458668232676E-05</v>
+        <v>6.700146607059167E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H15">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I15">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J15">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>13.14639841676333</v>
+        <v>80.41817284579899</v>
       </c>
       <c r="R15">
-        <v>118.31758575087</v>
+        <v>723.763555612191</v>
       </c>
       <c r="S15">
-        <v>7.932165402220447E-06</v>
+        <v>5.261440402288606E-05</v>
       </c>
       <c r="T15">
-        <v>7.932165402220447E-06</v>
+        <v>5.261440402288607E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H16">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I16">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J16">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>19.13779970990233</v>
+        <v>96.01815089666401</v>
       </c>
       <c r="R16">
-        <v>172.240197389121</v>
+        <v>864.163358069976</v>
       </c>
       <c r="S16">
-        <v>1.154720767780338E-05</v>
+        <v>6.28208476521166E-05</v>
       </c>
       <c r="T16">
-        <v>1.154720767780338E-05</v>
+        <v>6.282084765211663E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H17">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I17">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J17">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>16150.20459746245</v>
+        <v>26290.04186697916</v>
       </c>
       <c r="R17">
-        <v>145351.8413771621</v>
+        <v>236610.3768028124</v>
       </c>
       <c r="S17">
-        <v>0.009744577190314095</v>
+        <v>0.01720052614500667</v>
       </c>
       <c r="T17">
-        <v>0.009744577190314093</v>
+        <v>0.01720052614500668</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H18">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I18">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J18">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>17022.91390521168</v>
+        <v>28445.36396640622</v>
       </c>
       <c r="R18">
-        <v>153206.2251469051</v>
+        <v>256008.2756976559</v>
       </c>
       <c r="S18">
-        <v>0.01027114533146347</v>
+        <v>0.01861066745667456</v>
       </c>
       <c r="T18">
-        <v>0.01027114533146347</v>
+        <v>0.01861066745667457</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H19">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I19">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J19">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>10998.31915490331</v>
+        <v>12262.4234627764</v>
       </c>
       <c r="R19">
-        <v>98984.87239412978</v>
+        <v>110361.8111649876</v>
       </c>
       <c r="S19">
-        <v>0.006636075061581865</v>
+        <v>0.008022814738745198</v>
       </c>
       <c r="T19">
-        <v>0.006636075061581865</v>
+        <v>0.008022814738745202</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H20">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I20">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J20">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>5892.801234852937</v>
+        <v>9629.343060799354</v>
       </c>
       <c r="R20">
-        <v>53035.21111367643</v>
+        <v>86664.08754719418</v>
       </c>
       <c r="S20">
-        <v>0.00355554978599002</v>
+        <v>0.006300095219116113</v>
       </c>
       <c r="T20">
-        <v>0.003555549785990019</v>
+        <v>0.006300095219116115</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H21">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I21">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J21">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>8578.414116757473</v>
+        <v>11497.29821417942</v>
       </c>
       <c r="R21">
-        <v>77205.72705081725</v>
+        <v>103475.6839276148</v>
       </c>
       <c r="S21">
-        <v>0.005175972726955891</v>
+        <v>0.007522223796011591</v>
       </c>
       <c r="T21">
-        <v>0.00517597272695589</v>
+        <v>0.007522223796011594</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H22">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I22">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J22">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>40.95844676260533</v>
+        <v>228.2877491844054</v>
       </c>
       <c r="R22">
-        <v>368.626020863448</v>
+        <v>2054.589742659648</v>
       </c>
       <c r="S22">
-        <v>2.471316964840736E-05</v>
+        <v>0.0001493595718979462</v>
       </c>
       <c r="T22">
-        <v>2.471316964840736E-05</v>
+        <v>0.0001493595718979462</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H23">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I23">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J23">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>43.171720130442</v>
+        <v>247.003338658746</v>
       </c>
       <c r="R23">
-        <v>388.545481173978</v>
+        <v>2223.030047928714</v>
       </c>
       <c r="S23">
-        <v>2.604859627077594E-05</v>
+        <v>0.0001616044358544751</v>
       </c>
       <c r="T23">
-        <v>2.604859627077594E-05</v>
+        <v>0.0001616044358544751</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H24">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I24">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J24">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>27.89277788189933</v>
+        <v>106.4799008699687</v>
       </c>
       <c r="R24">
-        <v>251.035000937094</v>
+        <v>958.3191078297181</v>
       </c>
       <c r="S24">
-        <v>1.682971416753196E-05</v>
+        <v>6.966555352397631E-05</v>
       </c>
       <c r="T24">
-        <v>1.682971416753197E-05</v>
+        <v>6.966555352397633E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H25">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I25">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J25">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>14.94470142491333</v>
+        <v>83.61573041979133</v>
       </c>
       <c r="R25">
-        <v>134.50231282422</v>
+        <v>752.541573778122</v>
       </c>
       <c r="S25">
-        <v>9.017210632993876E-06</v>
+        <v>5.470643844907312E-05</v>
       </c>
       <c r="T25">
-        <v>9.017210632993876E-06</v>
+        <v>5.470643844907313E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H26">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I26">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J26">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>21.75566976804733</v>
+        <v>99.83598901428802</v>
       </c>
       <c r="R26">
-        <v>195.801027912426</v>
+        <v>898.5239011285921</v>
       </c>
       <c r="S26">
-        <v>1.312675651273358E-05</v>
+        <v>6.53187069058927E-05</v>
       </c>
       <c r="T26">
-        <v>1.312675651273358E-05</v>
+        <v>6.531870690589272E-05</v>
       </c>
     </row>
   </sheetData>
